--- a/output/ejecucion_1/gridsearch_results/base1/b1_ci_results_gs_xgb_s.xlsx
+++ b/output/ejecucion_1/gridsearch_results/base1/b1_ci_results_gs_xgb_s.xlsx
@@ -534,16 +534,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1959.888581752777</v>
+        <v>187.6589263439178</v>
       </c>
       <c r="C2">
-        <v>7.183115596278537</v>
+        <v>1.260957667245832</v>
       </c>
       <c r="D2">
-        <v>19.59032835960388</v>
+        <v>1.597512054443359</v>
       </c>
       <c r="E2">
-        <v>0.391031213886666</v>
+        <v>0.05880919239974763</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -587,16 +587,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3798.460404539108</v>
+        <v>371.0399147510528</v>
       </c>
       <c r="C3">
-        <v>20.56324467162059</v>
+        <v>2.247013835908929</v>
       </c>
       <c r="D3">
-        <v>18.89372115135193</v>
+        <v>2.100662755966186</v>
       </c>
       <c r="E3">
-        <v>1.747964611960527</v>
+        <v>0.08295081311260794</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -640,16 +640,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7053.054862308502</v>
+        <v>743.5080466270447</v>
       </c>
       <c r="C4">
-        <v>337.3837803228247</v>
+        <v>2.095083124156394</v>
       </c>
       <c r="D4">
-        <v>10.89801864624024</v>
+        <v>1.839073610305786</v>
       </c>
       <c r="E4">
-        <v>4.046764011981182</v>
+        <v>0.2511388520340822</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -693,16 +693,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1900.096012592316</v>
+        <v>192.3955340385437</v>
       </c>
       <c r="C5">
-        <v>95.14736414972734</v>
+        <v>0.8502665275713333</v>
       </c>
       <c r="D5">
-        <v>18.25384759902954</v>
+        <v>1.85203332901001</v>
       </c>
       <c r="E5">
-        <v>2.027130987096461</v>
+        <v>0.2128062639015629</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -746,16 +746,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1996.648798704147</v>
+        <v>374.0436499118805</v>
       </c>
       <c r="C6">
-        <v>633.7389934070743</v>
+        <v>1.454906537405201</v>
       </c>
       <c r="D6">
-        <v>4.134088182449341</v>
+        <v>1.804590368270874</v>
       </c>
       <c r="E6">
-        <v>1.472626083652027</v>
+        <v>0.2036292224368807</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -799,16 +799,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1969.274823188782</v>
+        <v>738.6901639461518</v>
       </c>
       <c r="C7">
-        <v>236.4462283944263</v>
+        <v>2.566665855546967</v>
       </c>
       <c r="D7">
-        <v>5.963365793228149</v>
+        <v>1.748728656768799</v>
       </c>
       <c r="E7">
-        <v>0.3571395039835575</v>
+        <v>0.1248934444475369</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -852,16 +852,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>490.978059053421</v>
+        <v>190.1935725212097</v>
       </c>
       <c r="C8">
-        <v>97.30180582020348</v>
+        <v>0.9022416757328573</v>
       </c>
       <c r="D8">
-        <v>5.682128429412842</v>
+        <v>1.666329383850098</v>
       </c>
       <c r="E8">
-        <v>0.8707416760960733</v>
+        <v>0.05473784477056894</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -905,16 +905,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1087.187767839432</v>
+        <v>371.3957646846771</v>
       </c>
       <c r="C9">
-        <v>94.6411437037417</v>
+        <v>2.046691190822151</v>
       </c>
       <c r="D9">
-        <v>3.87131724357605</v>
+        <v>1.677208185195923</v>
       </c>
       <c r="E9">
-        <v>1.83190924330955</v>
+        <v>0.06369654532750987</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -958,16 +958,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1662.754479885101</v>
+        <v>738.8924477577209</v>
       </c>
       <c r="C10">
-        <v>63.93744253296096</v>
+        <v>3.163684878407548</v>
       </c>
       <c r="D10">
-        <v>7.373874950408935</v>
+        <v>1.656140327453613</v>
       </c>
       <c r="E10">
-        <v>0.1866925926935892</v>
+        <v>0.03695500140200868</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1011,16 +1011,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>623.4487131595612</v>
+        <v>314.7178371429443</v>
       </c>
       <c r="C11">
-        <v>43.81244807290251</v>
+        <v>2.13554558872918</v>
       </c>
       <c r="D11">
-        <v>6.58963565826416</v>
+        <v>1.836596202850342</v>
       </c>
       <c r="E11">
-        <v>1.346475278286349</v>
+        <v>0.2289297721418531</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -1064,16 +1064,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1500.834672069549</v>
+        <v>615.3876048088074</v>
       </c>
       <c r="C12">
-        <v>126.3213469823046</v>
+        <v>2.32133518620277</v>
       </c>
       <c r="D12">
-        <v>6.922739505767822</v>
+        <v>1.804598760604858</v>
       </c>
       <c r="E12">
-        <v>0.7545319362401119</v>
+        <v>0.2103760257686744</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -1117,16 +1117,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2844.617348432541</v>
+        <v>1215.946527576446</v>
       </c>
       <c r="C13">
-        <v>61.7010274841579</v>
+        <v>5.908470233480413</v>
       </c>
       <c r="D13">
-        <v>7.190120553970337</v>
+        <v>1.690570545196533</v>
       </c>
       <c r="E13">
-        <v>0.4110080690271213</v>
+        <v>0.0655149278540159</v>
       </c>
       <c r="F13">
         <v>2</v>
@@ -1170,16 +1170,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>840.6951075553894</v>
+        <v>311.0300178050995</v>
       </c>
       <c r="C14">
-        <v>71.13362528326937</v>
+        <v>2.47344466598569</v>
       </c>
       <c r="D14">
-        <v>6.247714233398438</v>
+        <v>1.716483974456787</v>
       </c>
       <c r="E14">
-        <v>2.150340859860497</v>
+        <v>0.1534862982390311</v>
       </c>
       <c r="F14">
         <v>2</v>
@@ -1223,16 +1223,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1461.864828157425</v>
+        <v>615.7575721740723</v>
       </c>
       <c r="C15">
-        <v>138.4841843413576</v>
+        <v>3.853422812225658</v>
       </c>
       <c r="D15">
-        <v>7.283421754837036</v>
+        <v>1.690686511993408</v>
       </c>
       <c r="E15">
-        <v>0.2335655337852771</v>
+        <v>0.146666769289683</v>
       </c>
       <c r="F15">
         <v>2</v>
@@ -1276,16 +1276,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2863.450887203217</v>
+        <v>1219.672704648972</v>
       </c>
       <c r="C16">
-        <v>245.6396521074035</v>
+        <v>3.93503618757379</v>
       </c>
       <c r="D16">
-        <v>7.216429948806763</v>
+        <v>1.669526672363281</v>
       </c>
       <c r="E16">
-        <v>0.2031647183926535</v>
+        <v>0.02889518210339775</v>
       </c>
       <c r="F16">
         <v>2</v>
@@ -1329,16 +1329,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>789.3317478179931</v>
+        <v>313.5077887058258</v>
       </c>
       <c r="C17">
-        <v>119.7137317500758</v>
+        <v>4.959640734812297</v>
       </c>
       <c r="D17">
-        <v>7.219957637786865</v>
+        <v>1.818214702606201</v>
       </c>
       <c r="E17">
-        <v>0.2187348081778683</v>
+        <v>0.2103209486118717</v>
       </c>
       <c r="F17">
         <v>2</v>
@@ -1382,16 +1382,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1429.23758187294</v>
+        <v>608.0419114112854</v>
       </c>
       <c r="C18">
-        <v>61.47487163691592</v>
+        <v>8.698357761212964</v>
       </c>
       <c r="D18">
-        <v>6.032417821884155</v>
+        <v>1.676743793487549</v>
       </c>
       <c r="E18">
-        <v>1.549386788445136</v>
+        <v>0.1597758415913075</v>
       </c>
       <c r="F18">
         <v>2</v>
@@ -1435,16 +1435,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2340.689875793457</v>
+        <v>982.3444380283356</v>
       </c>
       <c r="C19">
-        <v>107.838144464509</v>
+        <v>28.61750343890318</v>
       </c>
       <c r="D19">
-        <v>2.863865470886231</v>
+        <v>1.125482702255249</v>
       </c>
       <c r="E19">
-        <v>1.165094026934506</v>
+        <v>0.1689588076926846</v>
       </c>
       <c r="F19">
         <v>2</v>
